--- a/soil_microbiome/data/20210216 BDD Sol2.xlsx
+++ b/soil_microbiome/data/20210216 BDD Sol2.xlsx
@@ -812,8 +812,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -991,7 +991,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,7 +1056,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1068,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,7 +1076,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,16 +1084,8 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1100,12 +1096,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1275,7 +1267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1283,7 +1275,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="33.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="19.09"/>
@@ -1308,7 +1301,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="5" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="5" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="30" style="5" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="5" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="5" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="5" width="10.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="5" width="8.91"/>
   </cols>
@@ -1436,84 +1429,84 @@
       <c r="D2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="15"/>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="19" t="n">
         <v>44140</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="19" t="n">
+      <c r="J2" s="20" t="n">
         <v>12733413</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="17" t="n">
+      <c r="L2" s="18" t="n">
         <v>4.27</v>
       </c>
-      <c r="M2" s="17" t="n">
+      <c r="M2" s="18" t="n">
         <v>1.67</v>
       </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="18" t="n">
         <v>6.12</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="18" t="n">
         <v>7.29</v>
       </c>
-      <c r="P2" s="17" t="n">
+      <c r="P2" s="18" t="n">
         <v>10.08</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="18" t="n">
         <v>17.49</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="18" t="n">
         <v>41.35</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="18" t="n">
         <v>8.64</v>
       </c>
-      <c r="T2" s="17" t="n">
+      <c r="T2" s="18" t="n">
         <v>7.85</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17" t="n">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="18" t="n">
         <v>11112</v>
       </c>
-      <c r="X2" s="17" t="n">
+      <c r="X2" s="18" t="n">
         <v>54</v>
       </c>
-      <c r="Y2" s="17" t="n">
+      <c r="Y2" s="18" t="n">
         <v>119</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17" t="n">
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18" t="n">
         <v>9.986</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="18" t="n">
         <v>0.97</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17" t="n">
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18" t="n">
         <v>2.672</v>
       </c>
-      <c r="AH2" s="17" t="n">
+      <c r="AH2" s="18" t="n">
         <v>13.837</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17" t="n">
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1527,89 +1520,89 @@
       <c r="C3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="19" t="n">
         <v>44140</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="19" t="n">
+      <c r="J3" s="20" t="n">
         <v>13031194</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="L3" s="18" t="n">
         <v>9.57</v>
       </c>
-      <c r="M3" s="17" t="n">
+      <c r="M3" s="18" t="n">
         <v>2.29</v>
       </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="18" t="n">
         <v>20.13</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="18" t="n">
         <v>14.34</v>
       </c>
-      <c r="P3" s="17" t="n">
+      <c r="P3" s="18" t="n">
         <v>22.54</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="18" t="n">
         <v>12.75</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="18" t="n">
         <v>3.75</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="18" t="n">
         <v>8.46</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="18" t="n">
         <v>7.75</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="n">
+      <c r="U3" s="18"/>
+      <c r="V3" s="18" t="n">
         <v>24.2</v>
       </c>
-      <c r="W3" s="17" t="n">
+      <c r="W3" s="18" t="n">
         <v>14068</v>
       </c>
-      <c r="X3" s="17" t="n">
+      <c r="X3" s="18" t="n">
         <v>358</v>
       </c>
-      <c r="Y3" s="17" t="n">
+      <c r="Y3" s="18" t="n">
         <v>226</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17" t="n">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18" t="n">
         <v>23.274</v>
       </c>
-      <c r="AB3" s="17" t="n">
+      <c r="AB3" s="18" t="n">
         <v>1.33</v>
       </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17" t="n">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18" t="n">
         <v>7.934</v>
       </c>
-      <c r="AH3" s="17" t="n">
+      <c r="AH3" s="18" t="n">
         <v>11.771</v>
       </c>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17" t="n">
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1623,89 +1616,89 @@
       <c r="C4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="19" t="n">
         <v>44140</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="19" t="n">
+      <c r="J4" s="20" t="n">
         <v>13031204</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="18" t="n">
         <v>8.23</v>
       </c>
-      <c r="M4" s="17" t="n">
+      <c r="M4" s="18" t="n">
         <v>1.63</v>
       </c>
-      <c r="N4" s="17" t="n">
+      <c r="N4" s="18" t="n">
         <v>17.29</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="18" t="n">
         <v>13.4</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="18" t="n">
         <v>23.78</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="18" t="n">
         <v>15.31</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="18" t="n">
         <v>3.69</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="18" t="n">
         <v>8.4</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="18" t="n">
         <v>7.66</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17" t="n">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18" t="n">
         <v>24.9</v>
       </c>
-      <c r="W4" s="17" t="n">
+      <c r="W4" s="18" t="n">
         <v>13630</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="18" t="n">
         <v>194</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="18" t="n">
         <v>216</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17" t="n">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18" t="n">
         <v>13.714</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="18" t="n">
         <v>0.95</v>
       </c>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17" t="n">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18" t="n">
         <v>5.034</v>
       </c>
-      <c r="AH4" s="17" t="n">
+      <c r="AH4" s="18" t="n">
         <v>13.171</v>
       </c>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17" t="n">
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1719,89 +1712,89 @@
       <c r="C5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="19" t="n">
         <v>44140</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="19" t="n">
+      <c r="J5" s="20" t="n">
         <v>13031200</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="18" t="n">
         <v>7.49</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="18" t="n">
         <v>1.75</v>
       </c>
-      <c r="N5" s="17" t="n">
+      <c r="N5" s="18" t="n">
         <v>15.76</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="18" t="n">
         <v>15.44</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="P5" s="18" t="n">
         <v>16.18</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="18" t="n">
         <v>17.34</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="18" t="n">
         <v>7.13</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="18" t="n">
         <v>8.48</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="18" t="n">
         <v>7.75</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17" t="n">
+      <c r="U5" s="18"/>
+      <c r="V5" s="18" t="n">
         <v>26.4</v>
       </c>
-      <c r="W5" s="17" t="n">
+      <c r="W5" s="18" t="n">
         <v>13601</v>
       </c>
-      <c r="X5" s="17" t="n">
+      <c r="X5" s="18" t="n">
         <v>182</v>
       </c>
-      <c r="Y5" s="17" t="n">
+      <c r="Y5" s="18" t="n">
         <v>205</v>
       </c>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17" t="n">
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18" t="n">
         <v>13.428</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="18" t="n">
         <v>1.02</v>
       </c>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17" t="n">
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18" t="n">
         <v>5.163</v>
       </c>
-      <c r="AH5" s="17" t="n">
+      <c r="AH5" s="18" t="n">
         <v>13.667</v>
       </c>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17" t="n">
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1815,89 +1808,89 @@
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="19" t="n">
         <v>44140</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="19" t="n">
+      <c r="J6" s="20" t="n">
         <v>13031196</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="18" t="n">
         <v>9.02</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="18" t="n">
         <v>1.59</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="18" t="n">
         <v>17.05</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="18" t="n">
         <v>11.56</v>
       </c>
-      <c r="P6" s="17" t="n">
+      <c r="P6" s="18" t="n">
         <v>26.53</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="18" t="n">
         <v>15.75</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="18" t="n">
         <v>3.72</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="18" t="n">
         <v>8.5</v>
       </c>
-      <c r="T6" s="17" t="n">
+      <c r="T6" s="18" t="n">
         <v>7.75</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17" t="n">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18" t="n">
         <v>23.8</v>
       </c>
-      <c r="W6" s="17" t="n">
+      <c r="W6" s="18" t="n">
         <v>13756</v>
       </c>
-      <c r="X6" s="17" t="n">
+      <c r="X6" s="18" t="n">
         <v>206</v>
       </c>
-      <c r="Y6" s="17" t="n">
+      <c r="Y6" s="18" t="n">
         <v>209</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17" t="n">
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18" t="n">
         <v>16.779</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="18" t="n">
         <v>0.92</v>
       </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17" t="n">
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18" t="n">
         <v>4.87</v>
       </c>
-      <c r="AH6" s="17" t="n">
+      <c r="AH6" s="18" t="n">
         <v>11.611</v>
       </c>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17" t="n">
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1911,89 +1904,89 @@
       <c r="C7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="18" t="n">
         <v>12733419</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="18" t="n">
         <v>13.58</v>
       </c>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="18" t="n">
         <v>2.16</v>
       </c>
-      <c r="N7" s="17" t="n">
+      <c r="N7" s="18" t="n">
         <v>28.38</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="18" t="n">
         <v>12.03</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" s="18" t="n">
         <v>24.68</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="18" t="n">
         <v>12.85</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="18" t="n">
         <v>19.8</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="18" t="n">
         <v>8.58</v>
       </c>
-      <c r="T7" s="17" t="n">
+      <c r="T7" s="18" t="n">
         <v>7.74</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="18"/>
+      <c r="V7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17" t="n">
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18" t="n">
         <v>18.625</v>
       </c>
-      <c r="AB7" s="17" t="n">
+      <c r="AB7" s="18" t="n">
         <v>1.26</v>
       </c>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17" t="n">
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18" t="n">
         <v>4.334</v>
       </c>
-      <c r="AH7" s="17" t="n">
+      <c r="AH7" s="18" t="n">
         <v>14.485</v>
       </c>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17" t="s">
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2007,89 +2000,89 @@
       <c r="C8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="18" t="n">
         <v>12733397</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="17" t="n">
+      <c r="L8" s="18" t="n">
         <v>3.29</v>
       </c>
-      <c r="M8" s="17" t="n">
+      <c r="M8" s="18" t="n">
         <v>0.6</v>
       </c>
-      <c r="N8" s="17" t="n">
+      <c r="N8" s="18" t="n">
         <v>5.55</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="18" t="n">
         <v>5.87</v>
       </c>
-      <c r="P8" s="17" t="n">
+      <c r="P8" s="18" t="n">
         <v>8.75</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="18" t="n">
         <v>14.47</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="18" t="n">
         <v>64.66</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="18" t="n">
         <v>7.72</v>
       </c>
-      <c r="T8" s="17" t="n">
+      <c r="T8" s="18" t="n">
         <v>6.8</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17" t="s">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="17" t="s">
+      <c r="Y8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17" t="n">
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18" t="n">
         <v>24.33</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="18" t="n">
         <v>0.35</v>
       </c>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17" t="n">
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18" t="n">
         <v>7.415</v>
       </c>
-      <c r="AH8" s="17" t="n">
+      <c r="AH8" s="18" t="n">
         <v>13.333</v>
       </c>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17" t="n">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18" t="n">
         <v>96.537</v>
       </c>
     </row>
@@ -2103,89 +2096,89 @@
       <c r="C9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="18" t="n">
         <v>12733401</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="18" t="n">
         <v>6.53</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="18" t="n">
         <v>0.55</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="18" t="n">
         <v>11.35</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="18" t="n">
         <v>9.05</v>
       </c>
-      <c r="P9" s="17" t="n">
+      <c r="P9" s="18" t="n">
         <v>12.34</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="18" t="n">
         <v>15.55</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="18" t="n">
         <v>51.06</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="18" t="n">
         <v>6.52</v>
       </c>
-      <c r="T9" s="17" t="n">
+      <c r="T9" s="18" t="n">
         <v>5.36</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17" t="s">
+      <c r="U9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17" t="n">
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18" t="n">
         <v>43.925</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="18" t="n">
         <v>0.32</v>
       </c>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17" t="n">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18" t="n">
         <v>5.303</v>
       </c>
-      <c r="AH9" s="17" t="n">
+      <c r="AH9" s="18" t="n">
         <v>15.154</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17" t="n">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18" t="n">
         <v>66.099</v>
       </c>
     </row>
@@ -2199,89 +2192,89 @@
       <c r="C10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="18" t="n">
         <v>12733405</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="17" t="n">
+      <c r="L10" s="18" t="n">
         <v>3.99</v>
       </c>
-      <c r="M10" s="17" t="n">
+      <c r="M10" s="18" t="n">
         <v>0.49</v>
       </c>
-      <c r="N10" s="17" t="n">
+      <c r="N10" s="18" t="n">
         <v>6.56</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="18" t="n">
         <v>8.91</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="18" t="n">
         <v>9.91</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="18" t="n">
         <v>13.29</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="18" t="n">
         <v>60.74</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="18" t="n">
         <v>6.85</v>
       </c>
-      <c r="T10" s="17" t="n">
+      <c r="T10" s="18" t="n">
         <v>5.58</v>
       </c>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17" t="s">
+      <c r="U10" s="18"/>
+      <c r="V10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Y10" s="17" t="s">
+      <c r="Y10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17" t="n">
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18" t="n">
         <v>24.095</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17" t="n">
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18" t="n">
         <v>4.84</v>
       </c>
-      <c r="AH10" s="17" t="n">
+      <c r="AH10" s="18" t="n">
         <v>17.375</v>
       </c>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17" t="n">
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18" t="n">
         <v>57.411</v>
       </c>
     </row>
@@ -2295,89 +2288,89 @@
       <c r="C11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="18" t="n">
         <v>12733409</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="18" t="n">
         <v>2.55</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="17" t="n">
+      <c r="N11" s="18" t="n">
         <v>4.49</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="18" t="n">
         <v>7.14</v>
       </c>
-      <c r="P11" s="17" t="n">
+      <c r="P11" s="18" t="n">
         <v>9.43</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="18" t="n">
         <v>16.71</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="18" t="n">
         <v>61.7</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="18" t="n">
         <v>6.99</v>
       </c>
-      <c r="T11" s="17" t="n">
+      <c r="T11" s="18" t="n">
         <v>6.06</v>
       </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17" t="s">
+      <c r="U11" s="18"/>
+      <c r="V11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17" t="n">
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18" t="n">
         <v>14.242</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17" t="n">
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18" t="n">
         <v>8.766</v>
       </c>
-      <c r="AH11" s="17" t="n">
+      <c r="AH11" s="18" t="n">
         <v>15.8</v>
       </c>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17" t="n">
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18" t="n">
         <v>78.429</v>
       </c>
     </row>
@@ -2391,89 +2384,89 @@
       <c r="C12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="19" t="n">
         <v>44041</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="17" t="n">
+      <c r="J12" s="18" t="n">
         <v>12733482</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="18" t="n">
         <v>23.66</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="18" t="n">
         <v>9.62</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="18" t="n">
         <v>19.08</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="18" t="n">
         <v>15.59</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="18" t="n">
         <v>18.92</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="18" t="n">
         <v>10.02</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="18" t="n">
         <v>26.67</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="18" t="n">
         <v>5.65</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="18" t="n">
         <v>4.8</v>
       </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17" t="s">
+      <c r="U12" s="18"/>
+      <c r="V12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17" t="n">
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18" t="n">
         <v>57.427</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="18" t="n">
         <v>5.59</v>
       </c>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17" t="n">
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18" t="n">
         <v>2.011</v>
       </c>
-      <c r="AH12" s="17" t="n">
+      <c r="AH12" s="18" t="n">
         <v>8.418</v>
       </c>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17" t="n">
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18" t="n">
         <v>45.524</v>
       </c>
     </row>
@@ -2487,89 +2480,89 @@
       <c r="C13" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="19" t="n">
         <v>44041</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="17" t="n">
+      <c r="J13" s="18" t="n">
         <v>12733483</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="18" t="n">
         <v>9.28</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="18" t="n">
         <v>3.27</v>
       </c>
-      <c r="N13" s="17" t="n">
+      <c r="N13" s="18" t="n">
         <v>6.53</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="18" t="n">
         <v>13.55</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="18" t="n">
         <v>16.98</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="18" t="n">
         <v>16.45</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="18" t="n">
         <v>43.12</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="18" t="n">
         <v>7.02</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="18" t="n">
         <v>6.23</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
+      <c r="U13" s="18"/>
+      <c r="V13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17" t="n">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18" t="n">
         <v>39.324</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="18" t="n">
         <v>1.9</v>
       </c>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17" t="n">
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18" t="n">
         <v>7.939</v>
       </c>
-      <c r="AH13" s="17" t="s">
+      <c r="AH13" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17" t="n">
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18" t="n">
         <v>144.585</v>
       </c>
     </row>
@@ -2583,89 +2576,89 @@
       <c r="C14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="19" t="n">
         <v>44035</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="17" t="n">
+      <c r="J14" s="18" t="n">
         <v>12733481</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="17" t="n">
+      <c r="L14" s="18" t="n">
         <v>31.3</v>
       </c>
-      <c r="M14" s="17" t="n">
+      <c r="M14" s="18" t="n">
         <v>7.43</v>
       </c>
-      <c r="N14" s="17" t="n">
+      <c r="N14" s="18" t="n">
         <v>33.64</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="18" t="n">
         <v>16.49</v>
       </c>
-      <c r="P14" s="17" t="n">
+      <c r="P14" s="18" t="n">
         <v>25.44</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="18" t="n">
         <v>4.57</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="18" t="n">
         <v>2.03</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="18" t="n">
         <v>7.86</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="18" t="n">
         <v>7.33</v>
       </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17" t="n">
+      <c r="U14" s="18"/>
+      <c r="V14" s="18" t="n">
         <v>10.4</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17" t="n">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18" t="n">
         <v>21.414</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="18" t="n">
         <v>4.32</v>
       </c>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17" t="n">
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18" t="n">
         <v>2.236</v>
       </c>
-      <c r="AH14" s="17" t="n">
+      <c r="AH14" s="18" t="n">
         <v>11.118</v>
       </c>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17" t="s">
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2679,89 +2672,89 @@
       <c r="C15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="19" t="n">
         <v>44035</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="J15" s="18" t="n">
         <v>12733473</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="L15" s="18" t="n">
         <v>28.17</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="18" t="n">
         <v>6.24</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="18" t="n">
         <v>33.54</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="18" t="n">
         <v>19.35</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="P15" s="18" t="n">
         <v>22.64</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="18" t="n">
         <v>5.35</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="18" t="n">
         <v>2.58</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="18" t="n">
         <v>8.07</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="18" t="n">
         <v>7.48</v>
       </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17" t="n">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18" t="n">
         <v>10.3</v>
       </c>
-      <c r="W15" s="17" t="s">
+      <c r="W15" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17" t="n">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18" t="n">
         <v>22.039</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="18" t="n">
         <v>3.63</v>
       </c>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17" t="n">
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18" t="n">
         <v>2.271</v>
       </c>
-      <c r="AH15" s="17" t="n">
+      <c r="AH15" s="18" t="n">
         <v>13.369</v>
       </c>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17" t="s">
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2775,89 +2768,89 @@
       <c r="C16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="19" t="n">
         <v>43999</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="J16" s="18" t="n">
         <v>12733415</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="17" t="n">
+      <c r="L16" s="18" t="n">
         <v>5.27</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="18" t="n">
         <v>1.17</v>
       </c>
-      <c r="N16" s="17" t="n">
+      <c r="N16" s="18" t="n">
         <v>8.46</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="18" t="n">
         <v>11.18</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="18" t="n">
         <v>12.61</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="18" t="n">
         <v>6.64</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="18" t="n">
         <v>59.84</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="18" t="n">
         <v>7.37</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="18" t="n">
         <v>6.48</v>
       </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17" t="s">
+      <c r="U16" s="18"/>
+      <c r="V16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W16" s="17" t="s">
+      <c r="W16" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17" t="n">
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18" t="n">
         <v>106.879</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="18" t="n">
         <v>0.68</v>
       </c>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17" t="n">
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18" t="n">
         <v>7.186</v>
       </c>
-      <c r="AH16" s="17" t="n">
+      <c r="AH16" s="18" t="n">
         <v>13.962</v>
       </c>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17" t="n">
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18" t="n">
         <v>80.863</v>
       </c>
     </row>
@@ -2871,89 +2864,89 @@
       <c r="C17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="19" t="n">
         <v>43999</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="17" t="n">
+      <c r="J17" s="18" t="n">
         <v>12733403</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="17" t="n">
+      <c r="L17" s="18" t="n">
         <v>6.14</v>
       </c>
-      <c r="M17" s="17" t="n">
+      <c r="M17" s="18" t="n">
         <v>0.76</v>
       </c>
-      <c r="N17" s="17" t="n">
+      <c r="N17" s="18" t="n">
         <v>8.3</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="18" t="n">
         <v>10.56</v>
       </c>
-      <c r="P17" s="17" t="n">
+      <c r="P17" s="18" t="n">
         <v>13.23</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="18" t="n">
         <v>6.47</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="18" t="n">
         <v>60.58</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="18" t="n">
         <v>7.03</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="18" t="n">
         <v>6.12</v>
       </c>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17" t="s">
+      <c r="U17" s="18"/>
+      <c r="V17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W17" s="17" t="s">
+      <c r="W17" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="Y17" s="17" t="s">
+      <c r="Y17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17" t="n">
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18" t="n">
         <v>109.393</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17" t="n">
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18" t="n">
         <v>6.104</v>
       </c>
-      <c r="AH17" s="17" t="n">
+      <c r="AH17" s="18" t="n">
         <v>10.082</v>
       </c>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17" t="n">
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18" t="n">
         <v>69.028</v>
       </c>
     </row>
@@ -2967,89 +2960,89 @@
       <c r="C18" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="19" t="n">
         <v>43999</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="17" t="n">
+      <c r="J18" s="18" t="n">
         <v>12733399</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="17" t="n">
+      <c r="L18" s="18" t="n">
         <v>5.3</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="M18" s="18" t="n">
         <v>1.08</v>
       </c>
-      <c r="N18" s="17" t="n">
+      <c r="N18" s="18" t="n">
         <v>10.24</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="18" t="n">
         <v>11.34</v>
       </c>
-      <c r="P18" s="17" t="n">
+      <c r="P18" s="18" t="n">
         <v>14.84</v>
       </c>
-      <c r="Q18" s="17" t="n">
+      <c r="Q18" s="18" t="n">
         <v>7.42</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="18" t="n">
         <v>54.98</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="18" t="n">
         <v>7.71</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="18" t="n">
         <v>6.81</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17" t="s">
+      <c r="U18" s="18"/>
+      <c r="V18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W18" s="17" t="s">
+      <c r="W18" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17" t="n">
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18" t="n">
         <v>100.249</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="18" t="n">
         <v>0.63</v>
       </c>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17" t="n">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18" t="n">
         <v>9.354</v>
       </c>
-      <c r="AH18" s="17" t="n">
+      <c r="AH18" s="18" t="n">
         <v>16.038</v>
       </c>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17" t="n">
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18" t="n">
         <v>109.299</v>
       </c>
     </row>
@@ -3063,89 +3056,89 @@
       <c r="C19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="19" t="n">
         <v>43999</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="17" t="n">
+      <c r="J19" s="18" t="n">
         <v>12733411</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="17" t="n">
+      <c r="L19" s="18" t="n">
         <v>4.97</v>
       </c>
-      <c r="M19" s="17" t="n">
+      <c r="M19" s="18" t="n">
         <v>1.23</v>
       </c>
-      <c r="N19" s="17" t="n">
+      <c r="N19" s="18" t="n">
         <v>6.14</v>
       </c>
-      <c r="O19" s="17" t="n">
+      <c r="O19" s="18" t="n">
         <v>8.27</v>
       </c>
-      <c r="P19" s="17" t="n">
+      <c r="P19" s="18" t="n">
         <v>12.02</v>
       </c>
-      <c r="Q19" s="17" t="n">
+      <c r="Q19" s="18" t="n">
         <v>7.83</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="18" t="n">
         <v>64.31</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="18" t="n">
         <v>7.71</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="18" t="n">
         <v>6.82</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17" t="n">
+      <c r="U19" s="18"/>
+      <c r="V19" s="18" t="n">
         <v>0.2</v>
       </c>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17" t="n">
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18" t="n">
         <v>107.482</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="18" t="n">
         <v>0.72</v>
       </c>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17" t="n">
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18" t="n">
         <v>7.957</v>
       </c>
-      <c r="AH19" s="17" t="n">
+      <c r="AH19" s="18" t="n">
         <v>17.3</v>
       </c>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17" t="n">
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18" t="n">
         <v>123.857</v>
       </c>
     </row>
@@ -3159,89 +3152,89 @@
       <c r="C20" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="19" t="n">
         <v>43999</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="17" t="n">
+      <c r="J20" s="18" t="n">
         <v>12733407</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="17" t="n">
+      <c r="L20" s="18" t="n">
         <v>4.98</v>
       </c>
-      <c r="M20" s="17" t="n">
+      <c r="M20" s="18" t="n">
         <v>1.52</v>
       </c>
-      <c r="N20" s="17" t="n">
+      <c r="N20" s="18" t="n">
         <v>6.89</v>
       </c>
-      <c r="O20" s="17" t="n">
+      <c r="O20" s="18" t="n">
         <v>7.76</v>
       </c>
-      <c r="P20" s="17" t="n">
+      <c r="P20" s="18" t="n">
         <v>10.07</v>
       </c>
-      <c r="Q20" s="17" t="n">
+      <c r="Q20" s="18" t="n">
         <v>7.14</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="18" t="n">
         <v>66.52</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="18" t="n">
         <v>7.31</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="18" t="n">
         <v>6.44</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17" t="s">
+      <c r="U20" s="18"/>
+      <c r="V20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17" t="n">
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18" t="n">
         <v>97.377</v>
       </c>
-      <c r="AB20" s="17" t="n">
+      <c r="AB20" s="18" t="n">
         <v>0.88</v>
       </c>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17" t="n">
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18" t="n">
         <v>6.596</v>
       </c>
-      <c r="AH20" s="17" t="n">
+      <c r="AH20" s="18" t="n">
         <v>15.3</v>
       </c>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17" t="n">
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18" t="n">
         <v>91.071</v>
       </c>
     </row>
@@ -3255,89 +3248,89 @@
       <c r="C21" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="19" t="n">
         <v>44145</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="20" t="n">
         <v>12733435</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="17" t="n">
+      <c r="L21" s="18" t="n">
         <v>21.46</v>
       </c>
-      <c r="M21" s="17" t="n">
+      <c r="M21" s="18" t="n">
         <v>4.71</v>
       </c>
-      <c r="N21" s="17" t="n">
+      <c r="N21" s="18" t="n">
         <v>33.89</v>
       </c>
-      <c r="O21" s="17" t="n">
+      <c r="O21" s="18" t="n">
         <v>10.18</v>
       </c>
-      <c r="P21" s="17" t="n">
+      <c r="P21" s="18" t="n">
         <v>22.59</v>
       </c>
-      <c r="Q21" s="17" t="n">
+      <c r="Q21" s="18" t="n">
         <v>2.84</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="18" t="n">
         <v>1.39</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="18" t="n">
         <v>8.33</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="18" t="n">
         <v>7.74</v>
       </c>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17" t="n">
+      <c r="U21" s="18"/>
+      <c r="V21" s="18" t="n">
         <v>24.4</v>
       </c>
-      <c r="W21" s="17" t="n">
+      <c r="W21" s="18" t="n">
         <v>15417</v>
       </c>
-      <c r="X21" s="17" t="n">
+      <c r="X21" s="18" t="n">
         <v>788</v>
       </c>
-      <c r="Y21" s="17" t="n">
+      <c r="Y21" s="18" t="n">
         <v>966</v>
       </c>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17" t="n">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18" t="n">
         <v>23.615</v>
       </c>
-      <c r="AB21" s="17" t="n">
+      <c r="AB21" s="18" t="n">
         <v>2.74</v>
       </c>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17" t="n">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18" t="n">
         <v>7.798</v>
       </c>
-      <c r="AH21" s="17" t="n">
+      <c r="AH21" s="18" t="n">
         <v>22.465</v>
       </c>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17" t="n">
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3351,89 +3344,89 @@
       <c r="C22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="19" t="n">
         <v>44145</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="20" t="n">
         <v>12733436</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="L22" s="18" t="n">
         <v>18.61</v>
       </c>
-      <c r="M22" s="17" t="n">
+      <c r="M22" s="18" t="n">
         <v>5.43</v>
       </c>
-      <c r="N22" s="17" t="n">
+      <c r="N22" s="18" t="n">
         <v>28.09</v>
       </c>
-      <c r="O22" s="17" t="n">
+      <c r="O22" s="18" t="n">
         <v>7.62</v>
       </c>
-      <c r="P22" s="17" t="n">
+      <c r="P22" s="18" t="n">
         <v>19.3</v>
       </c>
-      <c r="Q22" s="17" t="n">
+      <c r="Q22" s="18" t="n">
         <v>6.65</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="18" t="n">
         <v>4.51</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="18" t="n">
         <v>8.3</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="18" t="n">
         <v>7.76</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17" t="n">
+      <c r="U22" s="18"/>
+      <c r="V22" s="18" t="n">
         <v>28.4</v>
       </c>
-      <c r="W22" s="17" t="n">
+      <c r="W22" s="18" t="n">
         <v>15100</v>
       </c>
-      <c r="X22" s="17" t="n">
+      <c r="X22" s="18" t="n">
         <v>612</v>
       </c>
-      <c r="Y22" s="17" t="n">
+      <c r="Y22" s="18" t="n">
         <v>702</v>
       </c>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17" t="n">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18" t="n">
         <v>28.12</v>
       </c>
-      <c r="AB22" s="17" t="n">
+      <c r="AB22" s="18" t="n">
         <v>3.16</v>
       </c>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17" t="n">
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18" t="n">
         <v>7.001</v>
       </c>
-      <c r="AH22" s="17" t="n">
+      <c r="AH22" s="18" t="n">
         <v>18.871</v>
       </c>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17" t="n">
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3447,89 +3440,89 @@
       <c r="C23" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="19" t="n">
         <v>44145</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="20" t="n">
         <v>12733433</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="17" t="n">
+      <c r="L23" s="18" t="n">
         <v>14.89</v>
       </c>
-      <c r="M23" s="17" t="n">
+      <c r="M23" s="18" t="n">
         <v>3.39</v>
       </c>
-      <c r="N23" s="17" t="n">
+      <c r="N23" s="18" t="n">
         <v>24.72</v>
       </c>
-      <c r="O23" s="17" t="n">
+      <c r="O23" s="18" t="n">
         <v>9.46</v>
       </c>
-      <c r="P23" s="17" t="n">
+      <c r="P23" s="18" t="n">
         <v>8.55</v>
       </c>
-      <c r="Q23" s="17" t="n">
+      <c r="Q23" s="18" t="n">
         <v>11.03</v>
       </c>
-      <c r="R23" s="17" t="n">
+      <c r="R23" s="18" t="n">
         <v>16.85</v>
       </c>
-      <c r="S23" s="17" t="n">
+      <c r="S23" s="18" t="n">
         <v>8.43</v>
       </c>
-      <c r="T23" s="17" t="n">
+      <c r="T23" s="18" t="n">
         <v>7.78</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17" t="n">
+      <c r="U23" s="18"/>
+      <c r="V23" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="W23" s="17" t="n">
+      <c r="W23" s="18" t="n">
         <v>14162</v>
       </c>
-      <c r="X23" s="17" t="n">
+      <c r="X23" s="18" t="n">
         <v>428</v>
       </c>
-      <c r="Y23" s="17" t="n">
+      <c r="Y23" s="18" t="n">
         <v>549</v>
       </c>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17" t="n">
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18" t="n">
         <v>26.892</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="18" t="n">
         <v>1.97</v>
       </c>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17" t="n">
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18" t="n">
         <v>6.112</v>
       </c>
-      <c r="AH23" s="17" t="n">
+      <c r="AH23" s="18" t="n">
         <v>18.423</v>
       </c>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17" t="n">
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3543,89 +3536,89 @@
       <c r="C24" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="19" t="n">
         <v>44145</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="20" t="n">
         <v>12733434</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="17" t="n">
+      <c r="L24" s="18" t="n">
         <v>14.55</v>
       </c>
-      <c r="M24" s="17" t="n">
+      <c r="M24" s="18" t="n">
         <v>3.34</v>
       </c>
-      <c r="N24" s="17" t="n">
+      <c r="N24" s="18" t="n">
         <v>24.97</v>
       </c>
-      <c r="O24" s="17" t="n">
+      <c r="O24" s="18" t="n">
         <v>9.63</v>
       </c>
-      <c r="P24" s="17" t="n">
+      <c r="P24" s="18" t="n">
         <v>5.57</v>
       </c>
-      <c r="Q24" s="17" t="n">
+      <c r="Q24" s="18" t="n">
         <v>12.03</v>
       </c>
-      <c r="R24" s="17" t="n">
+      <c r="R24" s="18" t="n">
         <v>15.06</v>
       </c>
-      <c r="S24" s="17" t="n">
+      <c r="S24" s="18" t="n">
         <v>8.45</v>
       </c>
-      <c r="T24" s="17" t="n">
+      <c r="T24" s="18" t="n">
         <v>7.81</v>
       </c>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17" t="n">
+      <c r="U24" s="18"/>
+      <c r="V24" s="18" t="n">
         <v>29.4</v>
       </c>
-      <c r="W24" s="17" t="n">
+      <c r="W24" s="18" t="n">
         <v>14071</v>
       </c>
-      <c r="X24" s="17" t="n">
+      <c r="X24" s="18" t="n">
         <v>478</v>
       </c>
-      <c r="Y24" s="17" t="n">
+      <c r="Y24" s="18" t="n">
         <v>558</v>
       </c>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17" t="n">
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18" t="n">
         <v>35.586</v>
       </c>
-      <c r="AB24" s="17" t="n">
+      <c r="AB24" s="18" t="n">
         <v>1.94</v>
       </c>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17" t="n">
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18" t="n">
         <v>6.966</v>
       </c>
-      <c r="AH24" s="17" t="n">
+      <c r="AH24" s="18" t="n">
         <v>19.11</v>
       </c>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17" t="n">
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3639,87 +3632,87 @@
       <c r="C25" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="19" t="n">
         <v>43970</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="17" t="n">
+      <c r="J25" s="18" t="n">
         <v>12733462</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="17" t="n">
+      <c r="L25" s="18" t="n">
         <v>15.41</v>
       </c>
-      <c r="M25" s="17" t="n">
+      <c r="M25" s="18" t="n">
         <v>8.97</v>
       </c>
-      <c r="N25" s="17" t="n">
+      <c r="N25" s="18" t="n">
         <v>9.04</v>
       </c>
-      <c r="O25" s="17" t="n">
+      <c r="O25" s="18" t="n">
         <v>9.22</v>
       </c>
-      <c r="P25" s="17" t="n">
+      <c r="P25" s="18" t="n">
         <v>11.68</v>
       </c>
-      <c r="Q25" s="17" t="n">
+      <c r="Q25" s="18" t="n">
         <v>8.83</v>
       </c>
-      <c r="R25" s="17" t="n">
+      <c r="R25" s="18" t="n">
         <v>52.16</v>
       </c>
-      <c r="S25" s="17" t="n">
+      <c r="S25" s="18" t="n">
         <v>5.59</v>
       </c>
-      <c r="T25" s="17" t="n">
+      <c r="T25" s="18" t="n">
         <v>5.23</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17" t="s">
+      <c r="U25" s="18"/>
+      <c r="V25" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17" t="n">
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18" t="n">
         <v>55.981</v>
       </c>
-      <c r="AB25" s="17" t="n">
+      <c r="AB25" s="18" t="n">
         <v>5.22</v>
       </c>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17" t="n">
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18" t="n">
         <v>2.211</v>
       </c>
-      <c r="AH25" s="17" t="n">
+      <c r="AH25" s="18" t="n">
         <v>19.61</v>
       </c>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17" t="n">
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18" t="n">
         <v>76.809</v>
       </c>
     </row>
@@ -3733,87 +3726,87 @@
       <c r="C26" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="19" t="n">
         <v>43970</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="17" t="n">
+      <c r="J26" s="18" t="n">
         <v>12733463</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L26" s="17" t="n">
+      <c r="L26" s="18" t="n">
         <v>9.2</v>
       </c>
-      <c r="M26" s="17" t="n">
+      <c r="M26" s="18" t="n">
         <v>3.29</v>
       </c>
-      <c r="N26" s="17" t="n">
+      <c r="N26" s="18" t="n">
         <v>10.49</v>
       </c>
-      <c r="O26" s="17" t="n">
+      <c r="O26" s="18" t="n">
         <v>15.46</v>
       </c>
-      <c r="P26" s="17" t="n">
+      <c r="P26" s="18" t="n">
         <v>17.81</v>
       </c>
-      <c r="Q26" s="17" t="n">
+      <c r="Q26" s="18" t="n">
         <v>4.41</v>
       </c>
-      <c r="R26" s="17" t="n">
+      <c r="R26" s="18" t="n">
         <v>48.44</v>
       </c>
-      <c r="S26" s="17" t="n">
+      <c r="S26" s="18" t="n">
         <v>6.93</v>
       </c>
-      <c r="T26" s="17" t="n">
+      <c r="T26" s="18" t="n">
         <v>6.15</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17" t="s">
+      <c r="U26" s="18"/>
+      <c r="V26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="17" t="s">
+      <c r="W26" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="X26" s="17" t="s">
+      <c r="X26" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17" t="n">
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB26" s="17" t="n">
+      <c r="AB26" s="18" t="n">
         <v>1.91</v>
       </c>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17" t="n">
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18" t="n">
         <v>2.428</v>
       </c>
-      <c r="AH26" s="17" t="n">
+      <c r="AH26" s="18" t="n">
         <v>20.326</v>
       </c>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17" t="n">
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18" t="n">
         <v>128.377</v>
       </c>
     </row>
@@ -3827,87 +3820,87 @@
       <c r="C27" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="19" t="n">
         <v>43970</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="17" t="n">
+      <c r="J27" s="18" t="n">
         <v>12733464</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L27" s="17" t="n">
+      <c r="L27" s="18" t="n">
         <v>8.56</v>
       </c>
-      <c r="M27" s="17" t="n">
+      <c r="M27" s="18" t="n">
         <v>2.45</v>
       </c>
-      <c r="N27" s="17" t="n">
+      <c r="N27" s="18" t="n">
         <v>13.34</v>
       </c>
-      <c r="O27" s="17" t="n">
+      <c r="O27" s="18" t="n">
         <v>11.82</v>
       </c>
-      <c r="P27" s="17" t="n">
+      <c r="P27" s="18" t="n">
         <v>9.1</v>
       </c>
-      <c r="Q27" s="17" t="n">
+      <c r="Q27" s="18" t="n">
         <v>5.43</v>
       </c>
-      <c r="R27" s="17" t="n">
+      <c r="R27" s="18" t="n">
         <v>57.76</v>
       </c>
-      <c r="S27" s="17" t="n">
+      <c r="S27" s="18" t="n">
         <v>5.37</v>
       </c>
-      <c r="T27" s="17" t="n">
+      <c r="T27" s="18" t="n">
         <v>4.24</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17" t="s">
+      <c r="U27" s="18"/>
+      <c r="V27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17" t="n">
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18" t="n">
         <v>51.702</v>
       </c>
-      <c r="AB27" s="17" t="n">
+      <c r="AB27" s="18" t="n">
         <v>1.42</v>
       </c>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17" t="n">
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18" t="n">
         <v>2.053</v>
       </c>
-      <c r="AH27" s="17" t="n">
+      <c r="AH27" s="18" t="n">
         <v>15.581</v>
       </c>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17" t="n">
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18" t="n">
         <v>72.425</v>
       </c>
     </row>
@@ -3921,87 +3914,87 @@
       <c r="C28" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="19" t="n">
         <v>43970</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="17" t="n">
+      <c r="J28" s="18" t="n">
         <v>12733453</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L28" s="17" t="n">
+      <c r="L28" s="18" t="n">
         <v>8.56</v>
       </c>
-      <c r="M28" s="17" t="n">
+      <c r="M28" s="18" t="n">
         <v>2.39</v>
       </c>
-      <c r="N28" s="17" t="n">
+      <c r="N28" s="18" t="n">
         <v>10.68</v>
       </c>
-      <c r="O28" s="17" t="n">
+      <c r="O28" s="18" t="n">
         <v>9.09</v>
       </c>
-      <c r="P28" s="17" t="n">
+      <c r="P28" s="18" t="n">
         <v>17.76</v>
       </c>
-      <c r="Q28" s="17" t="n">
+      <c r="Q28" s="18" t="n">
         <v>8.19</v>
       </c>
-      <c r="R28" s="17" t="n">
+      <c r="R28" s="18" t="n">
         <v>51.79</v>
       </c>
-      <c r="S28" s="17" t="n">
+      <c r="S28" s="18" t="n">
         <v>5.25</v>
       </c>
-      <c r="T28" s="17" t="n">
+      <c r="T28" s="18" t="n">
         <v>4.16</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17" t="s">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="17" t="s">
+      <c r="W28" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17" t="n">
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18" t="n">
         <v>70.479</v>
       </c>
-      <c r="AB28" s="17" t="n">
+      <c r="AB28" s="18" t="n">
         <v>1.39</v>
       </c>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17" t="n">
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18" t="n">
         <v>2.103</v>
       </c>
-      <c r="AH28" s="17" t="n">
+      <c r="AH28" s="18" t="n">
         <v>13.314</v>
       </c>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17" t="n">
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18" t="n">
         <v>80.399</v>
       </c>
     </row>
@@ -4015,91 +4008,91 @@
       <c r="C29" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H29" s="18" t="n">
+      <c r="H29" s="19" t="n">
         <v>44169</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="17" t="n">
+      <c r="J29" s="18" t="n">
         <v>12733485</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="17" t="n">
+      <c r="L29" s="18" t="n">
         <v>14.11</v>
       </c>
-      <c r="M29" s="17" t="n">
+      <c r="M29" s="18" t="n">
         <v>6.38</v>
       </c>
-      <c r="N29" s="17" t="n">
+      <c r="N29" s="18" t="n">
         <v>8.91</v>
       </c>
-      <c r="O29" s="17" t="n">
+      <c r="O29" s="18" t="n">
         <v>11.29</v>
       </c>
-      <c r="P29" s="17" t="n">
+      <c r="P29" s="18" t="n">
         <v>12.13</v>
       </c>
-      <c r="Q29" s="17" t="n">
+      <c r="Q29" s="18" t="n">
         <v>12.47</v>
       </c>
-      <c r="R29" s="17" t="n">
+      <c r="R29" s="18" t="n">
         <v>48.72</v>
       </c>
-      <c r="S29" s="17" t="n">
+      <c r="S29" s="18" t="n">
         <v>4.96</v>
       </c>
-      <c r="T29" s="17" t="n">
+      <c r="T29" s="18" t="n">
         <v>4.23</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V29" s="17" t="n">
+      <c r="V29" s="18" t="n">
         <v>499</v>
       </c>
-      <c r="W29" s="17" t="n">
+      <c r="W29" s="18" t="n">
         <v>111</v>
       </c>
-      <c r="X29" s="17" t="n">
+      <c r="X29" s="18" t="n">
         <v>58</v>
       </c>
-      <c r="Y29" s="17" t="n">
+      <c r="Y29" s="18" t="n">
         <v>146.401</v>
       </c>
-      <c r="Z29" s="17" t="n">
+      <c r="Z29" s="18" t="n">
         <v>3.71</v>
       </c>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17" t="n">
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18" t="n">
         <v>1.675</v>
       </c>
-      <c r="AE29" s="17" t="n">
+      <c r="AE29" s="18" t="n">
         <v>2.057</v>
       </c>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17" t="n">
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18" t="n">
         <v>12.639</v>
       </c>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -4111,91 +4104,91 @@
       <c r="C30" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="19" t="n">
         <v>44169</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="17" t="n">
+      <c r="J30" s="18" t="n">
         <v>12733486</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="17" t="n">
+      <c r="L30" s="18" t="n">
         <v>11.5</v>
       </c>
-      <c r="M30" s="17" t="n">
+      <c r="M30" s="18" t="n">
         <v>6.97</v>
       </c>
-      <c r="N30" s="17" t="n">
+      <c r="N30" s="18" t="n">
         <v>10.12</v>
       </c>
-      <c r="O30" s="17" t="n">
+      <c r="O30" s="18" t="n">
         <v>11.32</v>
       </c>
-      <c r="P30" s="17" t="n">
+      <c r="P30" s="18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Q30" s="17" t="n">
+      <c r="Q30" s="18" t="n">
         <v>10.91</v>
       </c>
-      <c r="R30" s="17" t="n">
+      <c r="R30" s="18" t="n">
         <v>48.08</v>
       </c>
-      <c r="S30" s="17" t="n">
+      <c r="S30" s="18" t="n">
         <v>4.82</v>
       </c>
-      <c r="T30" s="17" t="n">
+      <c r="T30" s="18" t="n">
         <v>4.14</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V30" s="17" t="n">
+      <c r="V30" s="18" t="n">
         <v>856</v>
       </c>
-      <c r="W30" s="17" t="n">
+      <c r="W30" s="18" t="n">
         <v>94</v>
       </c>
-      <c r="X30" s="17" t="n">
+      <c r="X30" s="18" t="n">
         <v>37</v>
       </c>
-      <c r="Y30" s="17" t="n">
+      <c r="Y30" s="18" t="n">
         <v>99.729</v>
       </c>
-      <c r="Z30" s="17" t="n">
+      <c r="Z30" s="18" t="n">
         <v>4.05</v>
       </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17" t="n">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18" t="n">
         <v>1.739</v>
       </c>
-      <c r="AE30" s="17" t="n">
+      <c r="AE30" s="18" t="n">
         <v>1.609</v>
       </c>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17" t="n">
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18" t="n">
         <v>26.584</v>
       </c>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -4207,91 +4200,91 @@
       <c r="C31" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="19" t="n">
         <v>44169</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="17" t="n">
+      <c r="J31" s="18" t="n">
         <v>12733487</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L31" s="17" t="n">
+      <c r="L31" s="18" t="n">
         <v>8.97</v>
       </c>
-      <c r="M31" s="17" t="n">
+      <c r="M31" s="18" t="n">
         <v>3.17</v>
       </c>
-      <c r="N31" s="17" t="n">
+      <c r="N31" s="18" t="n">
         <v>11.07</v>
       </c>
-      <c r="O31" s="17" t="n">
+      <c r="O31" s="18" t="n">
         <v>10.13</v>
       </c>
-      <c r="P31" s="17" t="n">
+      <c r="P31" s="18" t="n">
         <v>12.54</v>
       </c>
-      <c r="Q31" s="17" t="n">
+      <c r="Q31" s="18" t="n">
         <v>13.07</v>
       </c>
-      <c r="R31" s="17" t="n">
+      <c r="R31" s="18" t="n">
         <v>49.92</v>
       </c>
-      <c r="S31" s="17" t="n">
+      <c r="S31" s="18" t="n">
         <v>5.77</v>
       </c>
-      <c r="T31" s="17" t="n">
+      <c r="T31" s="18" t="n">
         <v>4.46</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="U31" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V31" s="17" t="n">
+      <c r="V31" s="18" t="n">
         <v>965</v>
       </c>
-      <c r="W31" s="17" t="n">
+      <c r="W31" s="18" t="n">
         <v>377</v>
       </c>
-      <c r="X31" s="17" t="n">
+      <c r="X31" s="18" t="n">
         <v>114</v>
       </c>
-      <c r="Y31" s="17" t="n">
+      <c r="Y31" s="18" t="n">
         <v>134.601</v>
       </c>
-      <c r="Z31" s="17" t="n">
+      <c r="Z31" s="18" t="n">
         <v>1.84</v>
       </c>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17" t="n">
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18" t="n">
         <v>8.913</v>
       </c>
-      <c r="AE31" s="17" t="n">
+      <c r="AE31" s="18" t="n">
         <v>6.333</v>
       </c>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17" t="n">
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18" t="n">
         <v>38.294</v>
       </c>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -4303,91 +4296,91 @@
       <c r="C32" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="18" t="n">
+      <c r="H32" s="19" t="n">
         <v>44169</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="17" t="n">
+      <c r="J32" s="18" t="n">
         <v>12733488</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L32" s="17" t="n">
+      <c r="L32" s="18" t="n">
         <v>12.06</v>
       </c>
-      <c r="M32" s="17" t="n">
+      <c r="M32" s="18" t="n">
         <v>4.25</v>
       </c>
-      <c r="N32" s="17" t="n">
+      <c r="N32" s="18" t="n">
         <v>10.83</v>
       </c>
-      <c r="O32" s="17" t="n">
+      <c r="O32" s="18" t="n">
         <v>10.38</v>
       </c>
-      <c r="P32" s="17" t="n">
+      <c r="P32" s="18" t="n">
         <v>11.14</v>
       </c>
-      <c r="Q32" s="17" t="n">
+      <c r="Q32" s="18" t="n">
         <v>11.28</v>
       </c>
-      <c r="R32" s="17" t="n">
+      <c r="R32" s="18" t="n">
         <v>52.02</v>
       </c>
-      <c r="S32" s="17" t="n">
+      <c r="S32" s="18" t="n">
         <v>5.7</v>
       </c>
-      <c r="T32" s="17" t="n">
+      <c r="T32" s="18" t="n">
         <v>4.35</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="U32" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V32" s="17" t="n">
+      <c r="V32" s="18" t="n">
         <v>1143</v>
       </c>
-      <c r="W32" s="17" t="n">
+      <c r="W32" s="18" t="n">
         <v>309</v>
       </c>
-      <c r="X32" s="17" t="n">
+      <c r="X32" s="18" t="n">
         <v>110</v>
       </c>
-      <c r="Y32" s="17" t="n">
+      <c r="Y32" s="18" t="n">
         <v>93.528</v>
       </c>
-      <c r="Z32" s="17" t="n">
+      <c r="Z32" s="18" t="n">
         <v>2.47</v>
       </c>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17" t="n">
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18" t="n">
         <v>5.433</v>
       </c>
-      <c r="AE32" s="17" t="n">
+      <c r="AE32" s="18" t="n">
         <v>4.546</v>
       </c>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17" t="n">
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18" t="n">
         <v>33.737</v>
       </c>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -4399,89 +4392,89 @@
       <c r="C33" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="H33" s="18" t="n">
+      <c r="H33" s="19" t="n">
         <v>44175</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="17" t="n">
+      <c r="J33" s="18" t="n">
         <v>12733493</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="L33" s="17" t="n">
+      <c r="L33" s="18" t="n">
         <v>17.16</v>
       </c>
-      <c r="M33" s="17" t="n">
+      <c r="M33" s="18" t="n">
         <v>2.1</v>
       </c>
-      <c r="N33" s="17" t="n">
+      <c r="N33" s="18" t="n">
         <v>25.44</v>
       </c>
-      <c r="O33" s="17" t="n">
+      <c r="O33" s="18" t="n">
         <v>13.82</v>
       </c>
-      <c r="P33" s="17" t="n">
+      <c r="P33" s="18" t="n">
         <v>12.85</v>
       </c>
-      <c r="Q33" s="17" t="n">
+      <c r="Q33" s="18" t="n">
         <v>11.1</v>
       </c>
-      <c r="R33" s="17" t="n">
+      <c r="R33" s="18" t="n">
         <v>34.39</v>
       </c>
-      <c r="S33" s="17" t="n">
+      <c r="S33" s="18" t="n">
         <v>7.99</v>
       </c>
-      <c r="T33" s="17" t="n">
+      <c r="T33" s="18" t="n">
         <v>7.15</v>
       </c>
-      <c r="U33" s="17" t="n">
+      <c r="U33" s="18" t="n">
         <v>0.3</v>
       </c>
-      <c r="V33" s="17" t="n">
+      <c r="V33" s="18" t="n">
         <v>6718</v>
       </c>
-      <c r="W33" s="17" t="n">
+      <c r="W33" s="18" t="n">
         <v>269</v>
       </c>
-      <c r="X33" s="17" t="n">
+      <c r="X33" s="18" t="n">
         <v>311</v>
       </c>
-      <c r="Y33" s="17" t="n">
+      <c r="Y33" s="18" t="n">
         <v>47.092</v>
       </c>
-      <c r="Z33" s="17" t="n">
+      <c r="Z33" s="18" t="n">
         <v>1.22</v>
       </c>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17" t="n">
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18" t="n">
         <v>3.328</v>
       </c>
-      <c r="AE33" s="17" t="n">
+      <c r="AE33" s="18" t="n">
         <v>9.041</v>
       </c>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17" t="n">
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18" t="n">
         <v>139.493</v>
       </c>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -4493,89 +4486,89 @@
       <c r="C34" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="18" t="n">
+      <c r="G34" s="24"/>
+      <c r="H34" s="19" t="n">
         <v>44155</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="17" t="n">
+      <c r="J34" s="18" t="n">
         <v>12733470</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="L34" s="17" t="n">
+      <c r="L34" s="18" t="n">
         <v>8.71</v>
       </c>
-      <c r="M34" s="17" t="n">
+      <c r="M34" s="18" t="n">
         <v>5.08</v>
       </c>
-      <c r="N34" s="17" t="n">
+      <c r="N34" s="18" t="n">
         <v>9.77</v>
       </c>
-      <c r="O34" s="17" t="n">
+      <c r="O34" s="18" t="n">
         <v>13.68</v>
       </c>
-      <c r="P34" s="17" t="n">
+      <c r="P34" s="18" t="n">
         <v>19.78</v>
       </c>
-      <c r="Q34" s="17" t="n">
+      <c r="Q34" s="18" t="n">
         <v>28.21</v>
       </c>
-      <c r="R34" s="17" t="n">
+      <c r="R34" s="18" t="n">
         <v>21.28</v>
       </c>
-      <c r="S34" s="17" t="n">
+      <c r="S34" s="18" t="n">
         <v>8.15</v>
       </c>
-      <c r="T34" s="17" t="n">
+      <c r="T34" s="18" t="n">
         <v>7.47</v>
       </c>
-      <c r="U34" s="17" t="n">
+      <c r="U34" s="18" t="n">
         <v>2.2</v>
       </c>
-      <c r="V34" s="17" t="n">
+      <c r="V34" s="18" t="n">
         <v>9036</v>
       </c>
-      <c r="W34" s="17" t="n">
+      <c r="W34" s="18" t="n">
         <v>112</v>
       </c>
-      <c r="X34" s="17" t="n">
+      <c r="X34" s="18" t="n">
         <v>194</v>
       </c>
-      <c r="Y34" s="17" t="n">
+      <c r="Y34" s="18" t="n">
         <v>74.932</v>
       </c>
-      <c r="Z34" s="17" t="n">
+      <c r="Z34" s="18" t="n">
         <v>2.95</v>
       </c>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17" t="n">
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18" t="n">
         <v>2.739</v>
       </c>
-      <c r="AE34" s="17" t="n">
+      <c r="AE34" s="18" t="n">
         <v>11.149</v>
       </c>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17" t="n">
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -4587,89 +4580,89 @@
       <c r="C35" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="18" t="n">
+      <c r="G35" s="24"/>
+      <c r="H35" s="19" t="n">
         <v>44155</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="17" t="n">
+      <c r="J35" s="18" t="n">
         <v>12733469</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="17" t="n">
+      <c r="L35" s="18" t="n">
         <v>6.99</v>
       </c>
-      <c r="M35" s="17" t="n">
+      <c r="M35" s="18" t="n">
         <v>5.9</v>
       </c>
-      <c r="N35" s="17" t="n">
+      <c r="N35" s="18" t="n">
         <v>10.23</v>
       </c>
-      <c r="O35" s="17" t="n">
+      <c r="O35" s="18" t="n">
         <v>15.23</v>
       </c>
-      <c r="P35" s="17" t="n">
+      <c r="P35" s="18" t="n">
         <v>20.24</v>
       </c>
-      <c r="Q35" s="17" t="n">
+      <c r="Q35" s="18" t="n">
         <v>26.93</v>
       </c>
-      <c r="R35" s="17" t="n">
+      <c r="R35" s="18" t="n">
         <v>21.37</v>
       </c>
-      <c r="S35" s="17" t="n">
+      <c r="S35" s="18" t="n">
         <v>8.23</v>
       </c>
-      <c r="T35" s="17" t="n">
+      <c r="T35" s="18" t="n">
         <v>7.58</v>
       </c>
-      <c r="U35" s="17" t="s">
+      <c r="U35" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V35" s="17" t="n">
+      <c r="V35" s="18" t="n">
         <v>5546</v>
       </c>
-      <c r="W35" s="17" t="n">
+      <c r="W35" s="18" t="n">
         <v>170</v>
       </c>
-      <c r="X35" s="17" t="n">
+      <c r="X35" s="18" t="n">
         <v>210</v>
       </c>
-      <c r="Y35" s="17" t="n">
+      <c r="Y35" s="18" t="n">
         <v>28.829</v>
       </c>
-      <c r="Z35" s="17" t="n">
+      <c r="Z35" s="18" t="n">
         <v>3.43</v>
       </c>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17" t="n">
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18" t="n">
         <v>5.167</v>
       </c>
-      <c r="AE35" s="17" t="n">
+      <c r="AE35" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17" t="n">
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -4681,89 +4674,89 @@
       <c r="C36" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="18" t="n">
+      <c r="G36" s="24"/>
+      <c r="H36" s="19" t="n">
         <v>44155</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="17" t="n">
+      <c r="J36" s="18" t="n">
         <v>12733471</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L36" s="17" t="n">
+      <c r="L36" s="18" t="n">
         <v>15.96</v>
       </c>
-      <c r="M36" s="17" t="n">
+      <c r="M36" s="18" t="n">
         <v>7.58</v>
       </c>
-      <c r="N36" s="17" t="n">
+      <c r="N36" s="18" t="n">
         <v>22.41</v>
       </c>
-      <c r="O36" s="17" t="n">
+      <c r="O36" s="18" t="n">
         <v>7.98</v>
       </c>
-      <c r="P36" s="17" t="n">
+      <c r="P36" s="18" t="n">
         <v>8.57</v>
       </c>
-      <c r="Q36" s="17" t="n">
+      <c r="Q36" s="18" t="n">
         <v>5.38</v>
       </c>
-      <c r="R36" s="17" t="n">
+      <c r="R36" s="18" t="n">
         <v>5.88</v>
       </c>
-      <c r="S36" s="17" t="n">
+      <c r="S36" s="18" t="n">
         <v>8.29</v>
       </c>
-      <c r="T36" s="17" t="n">
+      <c r="T36" s="18" t="n">
         <v>7.93</v>
       </c>
-      <c r="U36" s="17" t="n">
+      <c r="U36" s="18" t="n">
         <v>42.2</v>
       </c>
-      <c r="V36" s="17" t="n">
+      <c r="V36" s="18" t="n">
         <v>15062</v>
       </c>
-      <c r="W36" s="17" t="n">
+      <c r="W36" s="18" t="n">
         <v>330</v>
       </c>
-      <c r="X36" s="17" t="n">
+      <c r="X36" s="18" t="n">
         <v>209</v>
       </c>
-      <c r="Y36" s="17" t="n">
+      <c r="Y36" s="18" t="n">
         <v>21.503</v>
       </c>
-      <c r="Z36" s="17" t="n">
+      <c r="Z36" s="18" t="n">
         <v>4.41</v>
       </c>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17" t="n">
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18" t="n">
         <v>4.388</v>
       </c>
-      <c r="AE36" s="17" t="n">
+      <c r="AE36" s="18" t="n">
         <v>6.531</v>
       </c>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17" t="n">
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -4775,89 +4768,89 @@
       <c r="C37" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="18" t="n">
+      <c r="G37" s="24"/>
+      <c r="H37" s="19" t="n">
         <v>44155</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="17" t="n">
+      <c r="J37" s="18" t="n">
         <v>12733477</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L37" s="17" t="n">
+      <c r="L37" s="18" t="n">
         <v>10.07</v>
       </c>
-      <c r="M37" s="17" t="n">
+      <c r="M37" s="18" t="n">
         <v>7.41</v>
       </c>
-      <c r="N37" s="17" t="n">
+      <c r="N37" s="18" t="n">
         <v>10.7</v>
       </c>
-      <c r="O37" s="17" t="n">
+      <c r="O37" s="18" t="n">
         <v>12.91</v>
       </c>
-      <c r="P37" s="17" t="n">
+      <c r="P37" s="18" t="n">
         <v>12.64</v>
       </c>
-      <c r="Q37" s="17" t="n">
+      <c r="Q37" s="18" t="n">
         <v>22.15</v>
       </c>
-      <c r="R37" s="17" t="n">
+      <c r="R37" s="18" t="n">
         <v>30.89</v>
       </c>
-      <c r="S37" s="17" t="n">
+      <c r="S37" s="18" t="n">
         <v>8.28</v>
       </c>
-      <c r="T37" s="17" t="n">
+      <c r="T37" s="18" t="n">
         <v>7.72</v>
       </c>
-      <c r="U37" s="17" t="n">
+      <c r="U37" s="18" t="n">
         <v>3.3</v>
       </c>
-      <c r="V37" s="17" t="n">
+      <c r="V37" s="18" t="n">
         <v>11035</v>
       </c>
-      <c r="W37" s="17" t="n">
+      <c r="W37" s="18" t="n">
         <v>99</v>
       </c>
-      <c r="X37" s="17" t="n">
+      <c r="X37" s="18" t="n">
         <v>310</v>
       </c>
-      <c r="Y37" s="17" t="n">
+      <c r="Y37" s="18" t="n">
         <v>21.587</v>
       </c>
-      <c r="Z37" s="17" t="n">
+      <c r="Z37" s="18" t="n">
         <v>4.31</v>
       </c>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17" t="n">
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18" t="n">
         <v>2.086</v>
       </c>
-      <c r="AE37" s="17" t="n">
+      <c r="AE37" s="18" t="n">
         <v>15.347</v>
       </c>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17" t="n">
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -4869,89 +4862,89 @@
       <c r="C38" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="18" t="n">
+      <c r="G38" s="24"/>
+      <c r="H38" s="19" t="n">
         <v>44155</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="17" t="n">
+      <c r="J38" s="18" t="n">
         <v>12733472</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="17" t="n">
+      <c r="L38" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="M38" s="17" t="n">
+      <c r="M38" s="18" t="n">
         <v>4.85</v>
       </c>
-      <c r="N38" s="17" t="n">
+      <c r="N38" s="18" t="n">
         <v>24.21</v>
       </c>
-      <c r="O38" s="17" t="n">
+      <c r="O38" s="18" t="n">
         <v>13.75</v>
       </c>
-      <c r="P38" s="17" t="n">
+      <c r="P38" s="18" t="n">
         <v>19.96</v>
       </c>
-      <c r="Q38" s="17" t="n">
+      <c r="Q38" s="18" t="n">
         <v>14.66</v>
       </c>
-      <c r="R38" s="17" t="n">
+      <c r="R38" s="18" t="n">
         <v>21.87</v>
       </c>
-      <c r="S38" s="17" t="n">
+      <c r="S38" s="18" t="n">
         <v>7.99</v>
       </c>
-      <c r="T38" s="17" t="n">
+      <c r="T38" s="18" t="n">
         <v>7.29</v>
       </c>
-      <c r="U38" s="17" t="n">
+      <c r="U38" s="18" t="n">
         <v>0.7</v>
       </c>
-      <c r="V38" s="17" t="n">
+      <c r="V38" s="18" t="n">
         <v>6888</v>
       </c>
-      <c r="W38" s="17" t="n">
+      <c r="W38" s="18" t="n">
         <v>165</v>
       </c>
-      <c r="X38" s="17" t="n">
+      <c r="X38" s="18" t="n">
         <v>267</v>
       </c>
-      <c r="Y38" s="17" t="n">
+      <c r="Y38" s="18" t="n">
         <v>42.673</v>
       </c>
-      <c r="Z38" s="17" t="n">
+      <c r="Z38" s="18" t="n">
         <v>2.82</v>
       </c>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17" t="n">
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18" t="n">
         <v>2.701</v>
       </c>
-      <c r="AE38" s="17" t="n">
+      <c r="AE38" s="18" t="n">
         <v>10.269</v>
       </c>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17" t="n">
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18" t="n">
         <v>150</v>
       </c>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4976,58 +4969,58 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="n">
+      <c r="A1" s="27" t="n">
         <v>3.33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="n">
+      <c r="A2" s="28" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+      <c r="A3" s="27" t="n">
         <v>1.07</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="n">
+      <c r="A4" s="27" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="n">
+      <c r="A5" s="28" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="n">
+      <c r="A6" s="29" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="n">
+      <c r="A7" s="30" t="n">
         <v>2.47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="n">
+      <c r="A8" s="28" t="n">
         <v>1.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="n">
+      <c r="A9" s="29" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
+      <c r="A10" s="30" t="n">
         <v>1.51</v>
       </c>
     </row>
